--- a/natmiOut/OldD7/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Clec11a</t>
   </si>
   <si>
     <t>Itga10</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>20.5478206298693</v>
+        <v>0.2864006666666667</v>
       </c>
       <c r="H2">
-        <v>20.5478206298693</v>
+        <v>0.859202</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01336984283671179</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01336984283671179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.453189724374204</v>
+        <v>0.5137036666666667</v>
       </c>
       <c r="N2">
-        <v>0.453189724374204</v>
+        <v>1.541111</v>
       </c>
       <c r="O2">
-        <v>0.1207970178116196</v>
+        <v>0.1150126437629128</v>
       </c>
       <c r="P2">
-        <v>0.1207970178116196</v>
+        <v>0.1150126437629128</v>
       </c>
       <c r="Q2">
-        <v>9.312061167741051</v>
+        <v>0.1471250726024445</v>
       </c>
       <c r="R2">
-        <v>9.312061167741051</v>
+        <v>1.324125653422</v>
       </c>
       <c r="S2">
-        <v>0.1207970178116196</v>
+        <v>0.001537700971344865</v>
       </c>
       <c r="T2">
-        <v>0.1207970178116196</v>
+        <v>0.001537700971344865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>20.5478206298693</v>
+        <v>0.2864006666666667</v>
       </c>
       <c r="H3">
-        <v>20.5478206298693</v>
+        <v>0.859202</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01336984283671179</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01336984283671179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.28273191729494</v>
+        <v>2.313512</v>
       </c>
       <c r="N3">
-        <v>2.28273191729494</v>
+        <v>6.940536</v>
       </c>
       <c r="O3">
-        <v>0.6084586504104884</v>
+        <v>0.5179700842390145</v>
       </c>
       <c r="P3">
-        <v>0.6084586504104884</v>
+        <v>0.5179700842390145</v>
       </c>
       <c r="Q3">
-        <v>46.90516598265407</v>
+        <v>0.6625913791413334</v>
       </c>
       <c r="R3">
-        <v>46.90516598265407</v>
+        <v>5.963322412272</v>
       </c>
       <c r="S3">
-        <v>0.6084586504104884</v>
+        <v>0.006925178620393991</v>
       </c>
       <c r="T3">
-        <v>0.6084586504104884</v>
+        <v>0.00692517862039399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>20.5478206298693</v>
+        <v>0.2864006666666667</v>
       </c>
       <c r="H4">
-        <v>20.5478206298693</v>
+        <v>0.859202</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01336984283671179</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01336984283671179</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.127184479307831</v>
+        <v>0.163003</v>
       </c>
       <c r="N4">
-        <v>0.127184479307831</v>
+        <v>0.489009</v>
       </c>
       <c r="O4">
-        <v>0.03390082560570989</v>
+        <v>0.03649459248156572</v>
       </c>
       <c r="P4">
-        <v>0.03390082560570989</v>
+        <v>0.03649459248156572</v>
       </c>
       <c r="Q4">
-        <v>2.613363867720635</v>
+        <v>0.04668416786866667</v>
       </c>
       <c r="R4">
-        <v>2.613363867720635</v>
+        <v>0.420157510818</v>
       </c>
       <c r="S4">
-        <v>0.03390082560570989</v>
+        <v>0.0004879269658683774</v>
       </c>
       <c r="T4">
-        <v>0.03390082560570989</v>
+        <v>0.0004879269658683774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.2864006666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.859202</v>
+      </c>
+      <c r="I5">
+        <v>0.01336984283671179</v>
+      </c>
+      <c r="J5">
+        <v>0.01336984283671179</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.476278666666667</v>
+      </c>
+      <c r="N5">
+        <v>4.428836</v>
+      </c>
+      <c r="O5">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="P5">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="Q5">
+        <v>0.4228071943191111</v>
+      </c>
+      <c r="R5">
+        <v>3.805264748872</v>
+      </c>
+      <c r="S5">
+        <v>0.004419036279104559</v>
+      </c>
+      <c r="T5">
+        <v>0.004419036279104558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>20.82581466666667</v>
+      </c>
+      <c r="H6">
+        <v>62.47744400000001</v>
+      </c>
+      <c r="I6">
+        <v>0.9721970003787959</v>
+      </c>
+      <c r="J6">
+        <v>0.9721970003787958</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5137036666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.541111</v>
+      </c>
+      <c r="O6">
+        <v>0.1150126437629128</v>
+      </c>
+      <c r="P6">
+        <v>0.1150126437629128</v>
+      </c>
+      <c r="Q6">
+        <v>10.69829735558711</v>
+      </c>
+      <c r="R6">
+        <v>96.284676200284</v>
+      </c>
+      <c r="S6">
+        <v>0.1118149472719389</v>
+      </c>
+      <c r="T6">
+        <v>0.1118149472719388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>20.82581466666667</v>
+      </c>
+      <c r="H7">
+        <v>62.47744400000001</v>
+      </c>
+      <c r="I7">
+        <v>0.9721970003787959</v>
+      </c>
+      <c r="J7">
+        <v>0.9721970003787958</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.313512</v>
+      </c>
+      <c r="N7">
+        <v>6.940536</v>
+      </c>
+      <c r="O7">
+        <v>0.5179700842390145</v>
+      </c>
+      <c r="P7">
+        <v>0.5179700842390145</v>
+      </c>
+      <c r="Q7">
+        <v>48.18077214110934</v>
+      </c>
+      <c r="R7">
+        <v>433.626949269984</v>
+      </c>
+      <c r="S7">
+        <v>0.5035689621831221</v>
+      </c>
+      <c r="T7">
+        <v>0.503568962183122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>20.82581466666667</v>
+      </c>
+      <c r="H8">
+        <v>62.47744400000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9721970003787959</v>
+      </c>
+      <c r="J8">
+        <v>0.9721970003787958</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.163003</v>
+      </c>
+      <c r="N8">
+        <v>0.489009</v>
+      </c>
+      <c r="O8">
+        <v>0.03649459248156572</v>
+      </c>
+      <c r="P8">
+        <v>0.03649459248156572</v>
+      </c>
+      <c r="Q8">
+        <v>3.394670268110667</v>
+      </c>
+      <c r="R8">
+        <v>30.552032412996</v>
+      </c>
+      <c r="S8">
+        <v>0.03547993334062475</v>
+      </c>
+      <c r="T8">
+        <v>0.03547993334062475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>20.82581466666667</v>
+      </c>
+      <c r="H9">
+        <v>62.47744400000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9721970003787959</v>
+      </c>
+      <c r="J9">
+        <v>0.9721970003787958</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.476278666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.428836</v>
+      </c>
+      <c r="O9">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="P9">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="Q9">
+        <v>30.74470590835378</v>
+      </c>
+      <c r="R9">
+        <v>276.702353175184</v>
+      </c>
+      <c r="S9">
+        <v>0.3213331575831102</v>
+      </c>
+      <c r="T9">
+        <v>0.3213331575831102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3091783333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.927535</v>
+      </c>
+      <c r="I10">
+        <v>0.01443315678449244</v>
+      </c>
+      <c r="J10">
+        <v>0.01443315678449244</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5137036666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.541111</v>
+      </c>
+      <c r="O10">
+        <v>0.1150126437629128</v>
+      </c>
+      <c r="P10">
+        <v>0.1150126437629128</v>
+      </c>
+      <c r="Q10">
+        <v>0.1588260434872222</v>
+      </c>
+      <c r="R10">
+        <v>1.429434391385</v>
+      </c>
+      <c r="S10">
+        <v>0.001659995519629097</v>
+      </c>
+      <c r="T10">
+        <v>0.001659995519629097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3091783333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.927535</v>
+      </c>
+      <c r="I11">
+        <v>0.01443315678449244</v>
+      </c>
+      <c r="J11">
+        <v>0.01443315678449244</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.313512</v>
+      </c>
+      <c r="N11">
+        <v>6.940536</v>
+      </c>
+      <c r="O11">
+        <v>0.5179700842390145</v>
+      </c>
+      <c r="P11">
+        <v>0.5179700842390145</v>
+      </c>
+      <c r="Q11">
+        <v>0.7152877843066666</v>
+      </c>
+      <c r="R11">
+        <v>6.43759005876</v>
+      </c>
+      <c r="S11">
+        <v>0.007475943435498451</v>
+      </c>
+      <c r="T11">
+        <v>0.00747594343549845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>20.5478206298693</v>
-      </c>
-      <c r="H5">
-        <v>20.5478206298693</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.888557062305777</v>
-      </c>
-      <c r="N5">
-        <v>0.888557062305777</v>
-      </c>
-      <c r="O5">
-        <v>0.2368435061721822</v>
-      </c>
-      <c r="P5">
-        <v>0.2368435061721822</v>
-      </c>
-      <c r="Q5">
-        <v>18.25791113566271</v>
-      </c>
-      <c r="R5">
-        <v>18.25791113566271</v>
-      </c>
-      <c r="S5">
-        <v>0.2368435061721822</v>
-      </c>
-      <c r="T5">
-        <v>0.2368435061721822</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3091783333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.927535</v>
+      </c>
+      <c r="I12">
+        <v>0.01443315678449244</v>
+      </c>
+      <c r="J12">
+        <v>0.01443315678449244</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.163003</v>
+      </c>
+      <c r="N12">
+        <v>0.489009</v>
+      </c>
+      <c r="O12">
+        <v>0.03649459248156572</v>
+      </c>
+      <c r="P12">
+        <v>0.03649459248156572</v>
+      </c>
+      <c r="Q12">
+        <v>0.05039699586833333</v>
+      </c>
+      <c r="R12">
+        <v>0.453572962815</v>
+      </c>
+      <c r="S12">
+        <v>0.000526732175072597</v>
+      </c>
+      <c r="T12">
+        <v>0.000526732175072597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3091783333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.927535</v>
+      </c>
+      <c r="I13">
+        <v>0.01443315678449244</v>
+      </c>
+      <c r="J13">
+        <v>0.01443315678449244</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.476278666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.428836</v>
+      </c>
+      <c r="O13">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="P13">
+        <v>0.330522679516507</v>
+      </c>
+      <c r="Q13">
+        <v>0.4564333776955555</v>
+      </c>
+      <c r="R13">
+        <v>4.107900399259999</v>
+      </c>
+      <c r="S13">
+        <v>0.004770485654292293</v>
+      </c>
+      <c r="T13">
+        <v>0.004770485654292293</v>
       </c>
     </row>
   </sheetData>
